--- a/data/trans_orig/P1427-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D88153-3351-47DB-A3A6-3A31BD07B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53ED5F1-5F35-419A-BE90-1B919BFCE70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B01E29CA-A88C-4725-85C5-685FD3F5BA42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8619D5D9-0BB3-463D-AA25-9170DD0B5DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,103 +139,109 @@
     <t>0,81%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,93%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -244,7 +250,7 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>2,58%</t>
@@ -253,421 +259,433 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>3,59%</t>
+    <t>3,62%</t>
   </si>
   <si>
     <t>4,48%</t>
@@ -676,19 +694,19 @@
     <t>96,66%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>96,0%</t>
@@ -697,7 +715,7 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>96,41%</t>
+    <t>96,38%</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEAE86A-D582-445B-97AB-8E31E5695E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B6396-C78C-4630-847D-42AA6E92C3C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1421,10 +1439,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,13 +1457,13 @@
         <v>1948140</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1626</v>
@@ -1454,28 +1472,28 @@
         <v>1744951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3468</v>
       </c>
       <c r="N8" s="7">
-        <v>3693092</v>
+        <v>3693091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,7 +1535,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1531,7 +1549,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1543,13 +1561,13 @@
         <v>2812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1558,13 +1576,13 @@
         <v>2008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1573,13 +1591,13 @@
         <v>4820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1612,13 @@
         <v>478369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>410</v>
@@ -1609,13 +1627,13 @@
         <v>456623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>845</v>
@@ -1624,13 +1642,13 @@
         <v>934992</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1716,13 @@
         <v>67982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -1713,13 +1731,13 @@
         <v>94052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -1728,13 +1746,13 @@
         <v>162034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1767,13 @@
         <v>3351800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -1764,28 +1782,28 @@
         <v>3456968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6348</v>
       </c>
       <c r="N14" s="7">
-        <v>6808767</v>
+        <v>6808768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1845,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1841,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72068963-28ED-495B-8841-42C139C4385D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC177D-513B-4219-AA1C-4240A0815E2E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1877,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1984,13 +2002,13 @@
         <v>19731</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -1999,13 +2017,13 @@
         <v>55702</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2014,13 +2032,13 @@
         <v>75433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2053,13 @@
         <v>734616</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>844</v>
@@ -2050,13 +2068,13 @@
         <v>938958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1584</v>
@@ -2065,13 +2083,13 @@
         <v>1673574</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2157,13 @@
         <v>11911</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2154,13 +2172,13 @@
         <v>18721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2169,13 +2187,13 @@
         <v>30631</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2208,13 @@
         <v>2064474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1891</v>
@@ -2205,13 +2223,13 @@
         <v>1969579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>3831</v>
@@ -2220,10 +2238,10 @@
         <v>4034054</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2282,7 +2300,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2309,7 +2327,7 @@
         <v>6043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>124</v>
@@ -2327,7 +2345,7 @@
         <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>127</v>
@@ -2360,7 +2378,7 @@
         <v>543097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>131</v>
@@ -2381,7 +2399,7 @@
         <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB933B9-178A-4FF4-B388-E88396B278B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F69952B-33EB-456D-8EBD-22CE9633A59B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,10 +2911,10 @@
         <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -2905,13 +2923,13 @@
         <v>41308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -2920,13 +2938,13 @@
         <v>81601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2959,13 @@
         <v>2119541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>2846</v>
@@ -2956,13 +2974,13 @@
         <v>2206769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>4781</v>
@@ -2971,13 +2989,13 @@
         <v>4326310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3051,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3045,13 +3063,13 @@
         <v>11012</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3060,13 +3078,13 @@
         <v>14355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3075,13 +3093,13 @@
         <v>25366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,28 +3114,28 @@
         <v>661267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
       </c>
       <c r="I11" s="7">
-        <v>698147</v>
+        <v>698148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3126,13 +3144,13 @@
         <v>1359416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3177,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712502</v>
+        <v>712503</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3200,13 +3218,13 @@
         <v>112577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -3215,13 +3233,13 @@
         <v>173896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>483</v>
@@ -3230,13 +3248,13 @@
         <v>286474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3269,13 @@
         <v>3259158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>5034</v>
@@ -3266,28 +3284,28 @@
         <v>3619410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>8222</v>
       </c>
       <c r="N14" s="7">
-        <v>6878566</v>
+        <v>6878567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3347,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7165040</v>
+        <v>7165041</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3343,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53ED5F1-5F35-419A-BE90-1B919BFCE70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA727F4-5760-48D1-80CE-D61320BCEC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8619D5D9-0BB3-463D-AA25-9170DD0B5DFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF4E745A-E907-4C83-B2D8-B0E6117A0589}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -148,292 +148,301 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -442,61 +451,52 @@
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>97,17%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
@@ -559,27 +559,18 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>2,4%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>2,21%</t>
   </si>
   <si>
@@ -589,27 +580,18 @@
     <t>97,6%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>98,16%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
     <t>98,15%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
     <t>1,64%</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
@@ -644,9 +623,6 @@
   </si>
   <si>
     <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -1127,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075B6396-C78C-4630-847D-42AA6E92C3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30C25EC-D222-49BB-949F-F70F2915E7E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1484,7 +1460,7 @@
         <v>3468</v>
       </c>
       <c r="N8" s="7">
-        <v>3693091</v>
+        <v>3693092</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1535,7 +1511,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1576,13 +1552,13 @@
         <v>2008</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1591,13 +1567,13 @@
         <v>4820</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1588,13 @@
         <v>478369</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>410</v>
@@ -1627,13 +1603,13 @@
         <v>456623</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>845</v>
@@ -1642,13 +1618,13 @@
         <v>934992</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1692,13 @@
         <v>67982</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -1731,13 +1707,13 @@
         <v>94052</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -1746,13 +1722,13 @@
         <v>162034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1743,13 @@
         <v>3351800</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -1782,28 +1758,28 @@
         <v>3456968</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6348</v>
       </c>
       <c r="N14" s="7">
-        <v>6808768</v>
+        <v>6808767</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,7 +1821,7 @@
         <v>6494</v>
       </c>
       <c r="N15" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1859,7 +1835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC177D-513B-4219-AA1C-4240A0815E2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C46D430-86F7-413A-B337-C4621A9DC117}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +1978,13 @@
         <v>19731</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -2017,13 +1993,13 @@
         <v>55702</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2032,13 +2008,13 @@
         <v>75433</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2029,13 @@
         <v>734616</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>844</v>
@@ -2068,13 +2044,13 @@
         <v>938958</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1584</v>
@@ -2083,13 +2059,13 @@
         <v>1673574</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2133,13 @@
         <v>11911</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2172,13 +2148,13 @@
         <v>18721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2187,13 +2163,13 @@
         <v>30631</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2184,13 @@
         <v>2064474</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1891</v>
@@ -2223,13 +2199,13 @@
         <v>1969579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="7">
         <v>3831</v>
@@ -2238,10 +2214,10 @@
         <v>4034054</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2327,13 +2303,13 @@
         <v>6043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2342,13 +2318,13 @@
         <v>9789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2339,13 @@
         <v>543139</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -2378,13 +2354,13 @@
         <v>543097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>1018</v>
@@ -2393,13 +2369,13 @@
         <v>1086237</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2443,13 @@
         <v>35388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2482,13 +2458,13 @@
         <v>80465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -2497,13 +2473,13 @@
         <v>115853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2494,13 @@
         <v>3342230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>3256</v>
@@ -2533,13 +2509,13 @@
         <v>3451635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>6433</v>
@@ -2610,7 +2586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F69952B-33EB-456D-8EBD-22CE9633A59B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F4624C-99F6-4C01-A4B6-A21F318882D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2911,10 +2887,10 @@
         <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
@@ -2923,13 +2899,13 @@
         <v>41308</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -2938,13 +2914,13 @@
         <v>81601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2935,13 @@
         <v>2119541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>2846</v>
@@ -2974,13 +2950,13 @@
         <v>2206769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>4781</v>
@@ -2989,13 +2965,13 @@
         <v>4326310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3039,13 @@
         <v>11012</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3078,13 +3054,13 @@
         <v>14355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3093,13 +3069,13 @@
         <v>25366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3090,13 @@
         <v>661267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -3129,13 +3105,13 @@
         <v>698148</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3144,13 +3120,13 @@
         <v>1359416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3194,13 @@
         <v>112577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -3233,13 +3209,13 @@
         <v>173896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>483</v>
@@ -3248,13 +3224,13 @@
         <v>286474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3245,13 @@
         <v>3259158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>5034</v>
@@ -3284,13 +3260,13 @@
         <v>3619410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>8222</v>
@@ -3299,13 +3275,13 @@
         <v>6878567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3337,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA727F4-5760-48D1-80CE-D61320BCEC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41DCEC0-93B6-4594-9BCA-34495ADD6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF4E745A-E907-4C83-B2D8-B0E6117A0589}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{142A9A64-14F7-496B-BDD3-23C65D57EB75}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="220">
   <si>
     <t>Población con diagnóstico de cataratas en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,268 +139,268 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -409,40 +409,31 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,61%</t>
@@ -451,217 +442,232 @@
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,59%</t>
   </si>
   <si>
     <t>4,48%</t>
@@ -670,19 +676,19 @@
     <t>96,66%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>96,0%</t>
@@ -691,7 +697,7 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>96,38%</t>
+    <t>96,41%</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30C25EC-D222-49BB-949F-F70F2915E7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C72155-B7AB-46DC-AC67-EF33B6059F38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1415,10 +1421,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,13 +1439,13 @@
         <v>1948140</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1626</v>
@@ -1448,13 +1454,13 @@
         <v>1744951</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3468</v>
@@ -1463,13 +1469,13 @@
         <v>3693092</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,7 +1531,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1537,13 +1543,13 @@
         <v>2812</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1552,13 +1558,13 @@
         <v>2008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1567,13 +1573,13 @@
         <v>4820</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,13 +1594,13 @@
         <v>478369</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>410</v>
@@ -1603,7 +1609,7 @@
         <v>456623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
@@ -1725,10 +1731,10 @@
         <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,13 +1749,13 @@
         <v>3351800</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3207</v>
@@ -1758,13 +1764,13 @@
         <v>3456968</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6348</v>
@@ -1773,13 +1779,13 @@
         <v>6808767</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,7 +1841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C46D430-86F7-413A-B337-C4621A9DC117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1129F938-D7AA-4DB0-B13E-E1D76F9CE096}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1871,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1978,13 +1984,13 @@
         <v>19731</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -1993,13 +1999,13 @@
         <v>55702</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2008,13 +2014,13 @@
         <v>75433</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2035,13 @@
         <v>734616</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>844</v>
@@ -2044,13 +2050,13 @@
         <v>938958</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1584</v>
@@ -2059,13 +2065,13 @@
         <v>1673574</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2139,13 @@
         <v>11911</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2148,13 +2154,13 @@
         <v>18721</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2163,13 +2169,13 @@
         <v>30631</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2190,13 @@
         <v>2064474</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1891</v>
@@ -2199,13 +2205,13 @@
         <v>1969579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M8" s="7">
         <v>3831</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2303,13 +2309,13 @@
         <v>6043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2318,13 +2324,13 @@
         <v>9789</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2345,13 @@
         <v>543139</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -2354,13 +2360,13 @@
         <v>543097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>1018</v>
@@ -2369,13 +2375,13 @@
         <v>1086237</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2449,13 @@
         <v>35388</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2458,13 +2464,13 @@
         <v>80465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -2473,13 +2479,13 @@
         <v>115853</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2500,13 @@
         <v>3342230</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>3256</v>
@@ -2509,13 +2515,13 @@
         <v>3451635</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>6433</v>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2605,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F4624C-99F6-4C01-A4B6-A21F318882D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE600E1-F23A-4C8A-BE07-738D786FD23C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2887,7 +2893,7 @@
         <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>173</v>
@@ -2902,7 +2908,7 @@
         <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>175</v>
@@ -2917,7 +2923,7 @@
         <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>177</v>
@@ -2941,7 +2947,7 @@
         <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>2846</v>
@@ -2971,7 +2977,7 @@
         <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,7 +3033,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3054,13 +3060,13 @@
         <v>14355</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -3069,13 +3075,13 @@
         <v>25366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,28 +3096,28 @@
         <v>661267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
       </c>
       <c r="I11" s="7">
-        <v>698148</v>
+        <v>698147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
@@ -3120,13 +3126,13 @@
         <v>1359416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3159,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712503</v>
+        <v>712502</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3194,13 +3200,13 @@
         <v>112577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
@@ -3209,13 +3215,13 @@
         <v>173896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>483</v>
@@ -3224,13 +3230,13 @@
         <v>286474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3251,13 @@
         <v>3259158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>5034</v>
@@ -3260,28 +3266,28 @@
         <v>3619410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>8222</v>
       </c>
       <c r="N14" s="7">
-        <v>6878567</v>
+        <v>6878566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,7 +3329,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7165041</v>
+        <v>7165040</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1427-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C41DCEC0-93B6-4594-9BCA-34495ADD6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C310870-68A4-48A6-BCF8-CBD3AB3A3EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{142A9A64-14F7-496B-BDD3-23C65D57EB75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0066D5B7-44EA-4479-B622-505D2DE0D183}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -502,202 +502,202 @@
     <t>Población con diagnóstico de cataratas en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C72155-B7AB-46DC-AC67-EF33B6059F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EC64E5-F80F-4A6D-A442-BA220183A596}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,7 +1296,7 @@
         <v>1171</v>
       </c>
       <c r="I5" s="7">
-        <v>1255393</v>
+        <v>1255394</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1347,7 +1347,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1466,7 +1466,7 @@
         <v>3468</v>
       </c>
       <c r="N8" s="7">
-        <v>3693092</v>
+        <v>3693091</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1517,7 +1517,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1672,7 +1672,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1129F938-D7AA-4DB0-B13E-E1D76F9CE096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB82552-B629-4C2D-A8D3-1BE2A7E3C5AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,7 +2372,7 @@
         <v>1018</v>
       </c>
       <c r="N11" s="7">
-        <v>1086237</v>
+        <v>1086238</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>133</v>
@@ -2423,7 +2423,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2611,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE600E1-F23A-4C8A-BE07-738D786FD23C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0CC1EC-BE38-49EB-B547-E2044FAA6273}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2732,7 +2732,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="7">
-        <v>61273</v>
+        <v>57465</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>154</v>
@@ -2747,7 +2747,7 @@
         <v>216</v>
       </c>
       <c r="I4" s="7">
-        <v>118234</v>
+        <v>106046</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>157</v>
@@ -2762,7 +2762,7 @@
         <v>316</v>
       </c>
       <c r="N4" s="7">
-        <v>179506</v>
+        <v>163510</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>160</v>
@@ -2783,7 +2783,7 @@
         <v>589</v>
       </c>
       <c r="D5" s="7">
-        <v>478349</v>
+        <v>455612</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>163</v>
@@ -2798,7 +2798,7 @@
         <v>1209</v>
       </c>
       <c r="I5" s="7">
-        <v>714492</v>
+        <v>646689</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>166</v>
@@ -2813,7 +2813,7 @@
         <v>1798</v>
       </c>
       <c r="N5" s="7">
-        <v>1192842</v>
+        <v>1102302</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>169</v>
@@ -2834,7 +2834,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539622</v>
+        <v>513077</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2849,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832726</v>
+        <v>752735</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2864,7 +2864,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372348</v>
+        <v>1265812</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2887,46 +2887,46 @@
         <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>40293</v>
+        <v>37728</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>41308</v>
+        <v>37670</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
       </c>
       <c r="N7" s="7">
-        <v>81601</v>
+        <v>75398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,46 +2938,46 @@
         <v>1935</v>
       </c>
       <c r="D8" s="7">
-        <v>2119541</v>
+        <v>2250522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>2846</v>
       </c>
       <c r="I8" s="7">
-        <v>2206769</v>
+        <v>2198806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>4781</v>
       </c>
       <c r="N8" s="7">
-        <v>4326310</v>
+        <v>4449328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159834</v>
+        <v>2288250</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3004,7 +3004,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248077</v>
+        <v>2236476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3019,7 +3019,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4407911</v>
+        <v>4524726</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3042,46 +3042,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>11012</v>
+        <v>10252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>14355</v>
+        <v>13076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>25366</v>
+        <v>23328</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,46 +3093,46 @@
         <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>661267</v>
+        <v>635669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
       </c>
       <c r="I11" s="7">
-        <v>698147</v>
+        <v>646109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
       </c>
       <c r="N11" s="7">
-        <v>1359416</v>
+        <v>1281778</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672279</v>
+        <v>645921</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3159,7 +3159,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712502</v>
+        <v>659185</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3174,7 +3174,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1384782</v>
+        <v>1305106</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3197,46 +3197,46 @@
         <v>171</v>
       </c>
       <c r="D13" s="7">
-        <v>112577</v>
+        <v>105444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <v>312</v>
       </c>
       <c r="I13" s="7">
-        <v>173896</v>
+        <v>156792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>483</v>
       </c>
       <c r="N13" s="7">
-        <v>286474</v>
+        <v>262236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3248,13 @@
         <v>3188</v>
       </c>
       <c r="D14" s="7">
-        <v>3259158</v>
+        <v>3341804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>213</v>
@@ -3263,7 +3263,7 @@
         <v>5034</v>
       </c>
       <c r="I14" s="7">
-        <v>3619410</v>
+        <v>3491604</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>214</v>
@@ -3278,7 +3278,7 @@
         <v>8222</v>
       </c>
       <c r="N14" s="7">
-        <v>6878566</v>
+        <v>6833408</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>217</v>
@@ -3299,7 +3299,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371735</v>
+        <v>3447248</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3314,7 +3314,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793306</v>
+        <v>3648396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3329,7 +3329,7 @@
         <v>8705</v>
       </c>
       <c r="N15" s="7">
-        <v>7165040</v>
+        <v>7095644</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
